--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="101">
   <si>
     <t>FirstName</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>PlanChange_From</t>
+  </si>
+  <si>
+    <t>Individualcustomer</t>
   </si>
 </sst>
 </file>
@@ -943,23 +946,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -968,7 +971,7 @@
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -1042,28 +1045,28 @@
       <c r="V1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -1210,11 +1213,6 @@
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1224,7 +1222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1250,27 +1250,27 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1508,21 +1508,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1533,10 +1533,10 @@
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -1767,21 +1767,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1792,10 +1792,10 @@
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -2047,21 +2047,21 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -2072,10 +2072,10 @@
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -2351,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,9 +2383,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -2401,9 +2406,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -2419,10 +2429,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="853" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="Modify" sheetId="6" r:id="rId6"/>
     <sheet name="Suspend" sheetId="7" r:id="rId7"/>
     <sheet name="Resume" sheetId="8" r:id="rId8"/>
-    <sheet name="PlanChange" sheetId="9" r:id="rId9"/>
+    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId9"/>
     <sheet name="Disconnect" sheetId="10" r:id="rId10"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
   <si>
     <t>FirstName</t>
   </si>
@@ -273,21 +274,9 @@
     <t>Normalcustomer</t>
   </si>
   <si>
-    <t>VIPCustomer</t>
-  </si>
-  <si>
     <t>TestCase</t>
   </si>
   <si>
-    <t>Qatari ID</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
     <t>Plan_View</t>
   </si>
   <si>
@@ -327,10 +316,73 @@
     <t>Remove_Addon</t>
   </si>
   <si>
-    <t>PlanChange_From</t>
-  </si>
-  <si>
     <t>Individualcustomer</t>
+  </si>
+  <si>
+    <t>Autogenerated</t>
+  </si>
+  <si>
+    <t>BlackCustomer</t>
+  </si>
+  <si>
+    <t>GetData</t>
+  </si>
+  <si>
+    <t>Mobile Service Bundle</t>
+  </si>
+  <si>
+    <t>Cont_FirstName</t>
+  </si>
+  <si>
+    <t>Cont_LastName</t>
+  </si>
+  <si>
+    <t>Cont_Mr/Ms</t>
+  </si>
+  <si>
+    <t>Cont_Email</t>
+  </si>
+  <si>
+    <t>Cont_DOB</t>
+  </si>
+  <si>
+    <t>Cont_IDExpiryDate</t>
+  </si>
+  <si>
+    <t>Cont_IDNumber</t>
+  </si>
+  <si>
+    <t>Cont_IDType</t>
+  </si>
+  <si>
+    <t>Cont_MobilePhone</t>
+  </si>
+  <si>
+    <t>Cont_Nationality</t>
+  </si>
+  <si>
+    <t>Cont_Gender</t>
+  </si>
+  <si>
+    <t>Cont_PrefLang</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid</t>
+  </si>
+  <si>
+    <t>New_PlanName</t>
+  </si>
+  <si>
+    <t>Existing_PlanName</t>
   </si>
 </sst>
 </file>
@@ -394,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -428,11 +480,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -452,37 +513,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -944,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,263 +1012,224 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>100</v>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3"/>
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3"/>
+      <c r="O3" s="4"/>
+      <c r="Q3"/>
+      <c r="R3"/>
       <c r="T3"/>
-      <c r="U3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>61</v>
-      </c>
+      <c r="U3"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3"/>
+      <c r="Z3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E2 E4:E1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+  <conditionalFormatting sqref="F2 F4:F1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1220,24 +1238,126 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1248,29 +1368,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1282,63 +1402,61 @@
     <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1371,73 +1489,71 @@
       <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>80</v>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>42</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="T2"/>
-      <c r="U2"/>
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" t="s">
+        <v>96</v>
+      </c>
       <c r="V2" s="6" t="s">
         <v>47</v>
       </c>
@@ -1460,10 +1576,76 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="Q3" s="7" t="s">
-        <v>81</v>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="Y3" t="s">
         <v>53</v>
@@ -1477,26 +1659,25 @@
       <c r="AB3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Y4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>59</v>
-      </c>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E2">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
-      <formula1>INDIRECT(P2)</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
-      <formula1>INDIRECT(#REF!)</formula1>
+      <formula1>INDIRECT(XEY2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1506,10 +1687,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,245 +1698,281 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="J3" s="5" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="K3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AF4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="AG4" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:F1">
+  <conditionalFormatting sqref="F1:G1">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
     <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="S2">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
     <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3 A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3:C3">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1765,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,260 +1993,384 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AG3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AF3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AF4" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AG4" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S11" s="12"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:F1">
+  <conditionalFormatting sqref="F1:G1">
     <cfRule type="duplicateValues" dxfId="7" priority="3"/>
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="S2">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
@@ -2045,10 +2386,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,284 +2397,291 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="J3" s="5" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="K3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="J4" s="5" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="J5" s="5" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="J6" s="5" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="J7" s="5" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="K7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:F1">
+  <conditionalFormatting sqref="F1:G1">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="S2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -2349,30 +2697,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,20 +2768,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2404,20 +2831,60 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2427,27 +2894,67 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,22 @@
     <sheet name="EnterprisePrepaid_Provisioning" sheetId="3" r:id="rId3"/>
     <sheet name="EnterprisePostpaid_Provisioning" sheetId="4" r:id="rId4"/>
     <sheet name="FixedLine_Provisioning" sheetId="5" r:id="rId5"/>
-    <sheet name="Modify" sheetId="6" r:id="rId6"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId7"/>
-    <sheet name="Resume" sheetId="8" r:id="rId8"/>
-    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId9"/>
-    <sheet name="Disconnect" sheetId="10" r:id="rId10"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId11"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId12"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId6"/>
+    <sheet name="Modify" sheetId="6" r:id="rId7"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId8"/>
+    <sheet name="Resume" sheetId="8" r:id="rId9"/>
+    <sheet name="PlanChange" sheetId="13" r:id="rId10"/>
+    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId11"/>
+    <sheet name="Disconnect" sheetId="10" r:id="rId12"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId13"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="131">
   <si>
     <t>TestCase</t>
   </si>
@@ -391,6 +393,33 @@
   </si>
   <si>
     <t>New_SIM</t>
+  </si>
+  <si>
+    <t>PlanChange_From</t>
+  </si>
+  <si>
+    <t>COPS Plan</t>
+  </si>
+  <si>
+    <t>SIPT</t>
+  </si>
+  <si>
+    <t>COSP for Large Customers</t>
+  </si>
+  <si>
+    <t>COSP for Medium Customers</t>
+  </si>
+  <si>
+    <t>COSP for SOHO Customers</t>
+  </si>
+  <si>
+    <t>COSP for VIP Customers</t>
+  </si>
+  <si>
+    <t>COSP for Education</t>
+  </si>
+  <si>
+    <t>COSP for Key and Government Customers</t>
   </si>
 </sst>
 </file>
@@ -546,107 +575,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1129,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,14 +1238,119 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1392,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1465,17 +1499,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,52 +1529,37 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2055,12 +2078,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
@@ -2294,12 +2317,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
@@ -2315,7 +2338,7 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,8 +2606,8 @@
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
@@ -2597,6 +2620,295 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:F1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2674,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2747,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2818,83 +3130,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="148">
   <si>
     <t>TestCase</t>
   </si>
@@ -398,9 +398,6 @@
     <t>PlanChange_From</t>
   </si>
   <si>
-    <t>COPS Plan</t>
-  </si>
-  <si>
     <t>SIPT</t>
   </si>
   <si>
@@ -420,6 +417,60 @@
   </si>
   <si>
     <t>COSP for Key and Government Customers</t>
+  </si>
+  <si>
+    <t>COSP_Plan</t>
+  </si>
+  <si>
+    <t>Default_Plan_Tab</t>
+  </si>
+  <si>
+    <t>Default_Addon</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Tier2</t>
+  </si>
+  <si>
+    <t>VFQA_SIPT</t>
+  </si>
+  <si>
+    <t>DID Plans</t>
+  </si>
+  <si>
+    <t>1 Voice Channel with 3 DIDs</t>
+  </si>
+  <si>
+    <t>DID Number Range</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40202560</t>
+  </si>
+  <si>
+    <t>40202565</t>
+  </si>
+  <si>
+    <t>StartNumber</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -1056,15 +1107,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,82 +1132,85 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1172,72 +1226,75 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>48</v>
-      </c>
-      <c r="U2" t="s">
-        <v>49</v>
       </c>
       <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="H2">
     <cfRule type="duplicateValues" dxfId="17" priority="1"/>
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
@@ -1275,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1569,15 +1626,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,82 +1651,85 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
@@ -1685,77 +1745,80 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>48</v>
-      </c>
-      <c r="U2" t="s">
-        <v>49</v>
       </c>
       <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>62</v>
       </c>
@@ -1771,82 +1834,82 @@
       <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>47</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
+      <c r="U3" s="4"/>
       <c r="V3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
-      <formula1>INDIRECT(XEZ2)</formula1>
+      <formula1>INDIRECT(XFA2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,15 +1918,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,97 +1943,100 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>84</v>
       </c>
@@ -1986,102 +2052,105 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="L3" s="13" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AH4" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI4" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:H1">
+  <conditionalFormatting sqref="H1:I1">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
     <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
+  <conditionalFormatting sqref="U2">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
     <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
@@ -2096,15 +2165,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,103 +2190,106 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>84</v>
       </c>
@@ -2233,94 +2305,97 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:H1">
+  <conditionalFormatting sqref="H1:I1">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
     <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
+  <conditionalFormatting sqref="U2">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
     <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
@@ -2620,15 +2695,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2638,107 +2713,125 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -2746,160 +2839,178 @@
         <v>103</v>
       </c>
       <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ3" t="s">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ4" t="s">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ5" t="s">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ6" t="s">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="J7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:F1">
+  <conditionalFormatting sqref="F1:G1">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
+  <conditionalFormatting sqref="S2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="149">
   <si>
     <t>TestCase</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Carol</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,18 +1793,13 @@
       <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="U2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1906,9 +1904,96 @@
       </c>
       <c r="AE3" s="4"/>
     </row>
+    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>INDIRECT(XFA2)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="148">
   <si>
     <t>TestCase</t>
   </si>
@@ -470,10 +470,7 @@
     <t>StartNumber</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>VFQA_Test_Carol</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1110,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,9 +1226,7 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1268,9 +1263,7 @@
       <c r="R2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
+      <c r="S2"/>
       <c r="T2" t="s">
         <v>48</v>
       </c>
@@ -1631,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,9 +1741,7 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1787,14 +1778,12 @@
       <c r="R2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
+      <c r="S2"/>
       <c r="T2" t="s">
         <v>48</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V2"/>
       <c r="W2"/>
@@ -1806,8 +1795,8 @@
       <c r="AA2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>60</v>
+      <c r="AB2" t="s">
+        <v>10</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>61</v>
@@ -1867,9 +1856,6 @@
       </c>
       <c r="R3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -1918,9 +1904,7 @@
       <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1957,9 +1941,7 @@
       <c r="R4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="S4" t="s">
-        <v>47</v>
-      </c>
+      <c r="S4"/>
       <c r="T4" t="s">
         <v>48</v>
       </c>
@@ -2006,7 +1988,7 @@
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,9 +2119,7 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
         <v>47</v>
@@ -2390,9 +2370,7 @@
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="H2" t="s">
         <v>47</v>
       </c>
@@ -2497,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -14,20 +14,19 @@
     <sheet name="FixedLine_Provisioning" sheetId="5" r:id="rId5"/>
     <sheet name="SIPT" sheetId="14" r:id="rId6"/>
     <sheet name="Modify" sheetId="6" r:id="rId7"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId8"/>
-    <sheet name="Resume" sheetId="8" r:id="rId9"/>
-    <sheet name="PlanChange" sheetId="13" r:id="rId10"/>
-    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId11"/>
+    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId8"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId9"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId10"/>
+    <sheet name="Resume" sheetId="8" r:id="rId11"/>
     <sheet name="Disconnect" sheetId="10" r:id="rId12"/>
     <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId13"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="148">
   <si>
     <t>TestCase</t>
   </si>
@@ -119,9 +118,6 @@
     <t>PlanName</t>
   </si>
   <si>
-    <t>Individualcustomer</t>
-  </si>
-  <si>
     <t>Prepaid Plans</t>
   </si>
   <si>
@@ -227,9 +223,6 @@
     <t>ARA</t>
   </si>
   <si>
-    <t>Account_Name</t>
-  </si>
-  <si>
     <t>CR_Number</t>
   </si>
   <si>
@@ -281,9 +274,6 @@
     <t>Cont_PrefLang</t>
   </si>
   <si>
-    <t>Normalcustomer</t>
-  </si>
-  <si>
     <t>Prepaid Business Plans</t>
   </si>
   <si>
@@ -395,9 +385,6 @@
     <t>New_SIM</t>
   </si>
   <si>
-    <t>PlanChange_From</t>
-  </si>
-  <si>
     <t>SIPT</t>
   </si>
   <si>
@@ -467,10 +454,22 @@
     <t>40202565</t>
   </si>
   <si>
-    <t>StartNumber</t>
-  </si>
-  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Bill_NewProfile</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>StarNumber</t>
   </si>
 </sst>
 </file>
@@ -515,7 +514,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,12 +524,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,13 +581,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -605,13 +595,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +616,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1107,15 +1117,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,165 +1173,263 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2" t="s">
+      <c r="T2"/>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3"/>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA4" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="I2">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="duplicateValues" dxfId="17" priority="1"/>
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
@@ -1300,23 +1439,70 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1326,76 +1512,70 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -1431,47 +1611,47 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1504,114 +1684,46 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1622,15 +1734,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,336 +1790,338 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2"/>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AD2"/>
+      <c r="AF2"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="AC3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4"/>
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2" t="s">
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="4" t="s">
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD4" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3" s="4"/>
-    </row>
-    <row r="4" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4"/>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AE4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>53</v>
+      <c r="AF4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>INDIRECT(XFA2)</formula1>
+      <formula1>INDIRECT(XFC2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1988,10 +2133,46 @@
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2010,28 +2191,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>19</v>
@@ -2049,43 +2230,43 @@
         <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>22</v>
@@ -2104,110 +2285,110 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="U2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
         <v>86</v>
       </c>
-      <c r="L2" t="s">
+      <c r="X2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M3" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="AI3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AI4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2233,10 +2414,47 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2255,28 +2473,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>19</v>
@@ -2294,43 +2512,43 @@
         <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>22</v>
@@ -2345,112 +2563,112 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
         <v>86</v>
       </c>
-      <c r="L2" t="s">
+      <c r="X2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AL2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2475,11 +2693,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2498,25 +2754,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
@@ -2534,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>5</v>
@@ -2552,16 +2808,16 @@
         <v>8</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>14</v>
@@ -2570,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>22</v>
@@ -2585,157 +2841,157 @@
         <v>25</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" t="s">
+      <c r="W2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="X2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="AK2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="D3" s="4"/>
-      <c r="E3" s="14"/>
-      <c r="L3" s="13" t="s">
-        <v>105</v>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13"/>
+      <c r="L3" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="AH3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="s">
         <v>10</v>
       </c>
       <c r="AJ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AK3" s="4" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E4" s="14"/>
-      <c r="L4" s="13" t="s">
+      <c r="E4" s="13"/>
+      <c r="L4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E5" s="13"/>
+      <c r="L5" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E6" s="13"/>
+      <c r="L6" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AH4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI4" t="s">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E7" s="13"/>
+      <c r="L7" s="12" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E5" s="14"/>
-      <c r="L5" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E6" s="14"/>
-      <c r="L6" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E7" s="14"/>
-      <c r="L7" s="13" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2758,15 +3014,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2776,304 +3076,310 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AN1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="K2" t="s">
         <v>134</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="L2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="T2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="AN2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="L3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="L4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="AH4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="L5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" t="s">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>89</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" t="s">
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="L6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" t="s">
         <v>124</v>
       </c>
-      <c r="AL2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="K3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK3" t="s">
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="L7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="K4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="K5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="K6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="K7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>129</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:G1">
+  <conditionalFormatting sqref="G1:H1">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
+  <conditionalFormatting sqref="T2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -3096,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3112,47 +3418,47 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3162,70 +3468,76 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3235,70 +3547,65 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="147">
   <si>
     <t>TestCase</t>
   </si>
@@ -448,12 +448,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>40202560</t>
-  </si>
-  <si>
-    <t>40202565</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -470,6 +464,9 @@
   </si>
   <si>
     <t>StarNumber</t>
+  </si>
+  <si>
+    <t>ExtCustomer</t>
   </si>
 </sst>
 </file>
@@ -514,7 +511,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,14 +524,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -557,31 +548,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -595,17 +566,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -616,7 +578,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1119,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1236,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
@@ -1259,7 +1261,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1274,7 +1276,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1327,9 +1329,7 @@
       <c r="Z2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="AA2" s="6"/>
       <c r="AB2" t="s">
         <v>51</v>
       </c>
@@ -1341,7 +1341,9 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -1356,61 +1358,17 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3"/>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="R3" s="5"/>
       <c r="T3"/>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="U3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
       <c r="AB3" t="s">
         <v>51</v>
       </c>
@@ -1421,17 +1379,99 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA4" s="6"/>
+    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1734,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,10 +1830,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1853,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>24</v>
@@ -1875,8 +1915,8 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>145</v>
+      <c r="A2" t="s">
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -1891,11 +1931,11 @@
         <v>33</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1933,18 +1973,31 @@
         <v>47</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
-      <c r="AD2"/>
-      <c r="AF2"/>
+      <c r="AB2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
@@ -1962,7 +2015,7 @@
       <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2012,7 +2065,7 @@
         <v>50</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>57</v>
@@ -2032,7 +2085,7 @@
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4"/>
       <c r="B4" t="s">
         <v>55</v>
       </c>
@@ -2050,7 +2103,7 @@
       <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -2100,7 +2153,7 @@
         <v>50</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>57</v>
@@ -2118,22 +2171,63 @@
         <v>52</v>
       </c>
     </row>
+    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>INDIRECT(XFC2)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,12 +2263,13 @@
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,10 +2286,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2274,24 +2369,27 @@
       <c r="AG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2301,8 +2399,8 @@
         <v>33</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="J2" t="s">
@@ -2365,56 +2463,85 @@
       <c r="AG2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI2" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="M3" s="12" t="s">
-        <v>93</v>
-      </c>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="3"/>
+      <c r="AB3" s="6"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
       <c r="AI3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ4" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH5" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  <conditionalFormatting sqref="U2:U3">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,13 +2577,14 @@
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,10 +2601,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2556,25 +2684,28 @@
       <c r="AG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>145</v>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -2601,7 +2732,7 @@
       <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="9" t="s">
         <v>93</v>
       </c>
       <c r="O2" t="s">
@@ -2655,46 +2786,89 @@
       <c r="AG2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="M3" s="9"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="3"/>
+      <c r="AB3" s="6"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AH5" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  <conditionalFormatting sqref="U2:U3">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,14 +2904,15 @@
     <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -2834,25 +3009,28 @@
       <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>145</v>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>100</v>
@@ -2878,7 +3056,7 @@
       <c r="K2" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>93</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -2929,95 +3107,93 @@
       <c r="AF2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
-      <c r="E3" s="13"/>
-      <c r="L3" s="12" t="s">
+      <c r="E3" s="10"/>
+      <c r="L3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AG3" s="6"/>
+      <c r="AI3" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E4" s="13"/>
-      <c r="L4" s="12" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+      <c r="L4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>92</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E5" s="13"/>
-      <c r="L5" s="12" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E5" s="10"/>
+      <c r="L5" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E6" s="13"/>
-      <c r="L6" s="12" t="s">
+      <c r="AG5" s="6"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+      <c r="L6" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E7" s="13"/>
-      <c r="L7" s="12" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+      <c r="L7" s="9" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>INDIRECT(#REF!)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,20 +3229,21 @@
     <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -3163,46 +3340,49 @@
       <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>100</v>
@@ -3222,7 +3402,7 @@
       <c r="K2" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>93</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -3273,115 +3453,119 @@
       <c r="AF2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="AG2" s="6"/>
       <c r="AH2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>10</v>
       </c>
       <c r="AK2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" t="s">
         <v>120</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>136</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>137</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>138</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AQ2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="L3" s="12" t="s">
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH3" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="L4" s="12" t="s">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI4" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>104</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="L5" s="12" t="s">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" s="6"/>
+      <c r="AI5" t="s">
         <v>92</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="L6" s="12" t="s">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="L7" s="12" t="s">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,18 @@
     <sheet name="Resume" sheetId="8" r:id="rId11"/>
     <sheet name="Disconnect" sheetId="10" r:id="rId12"/>
     <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId13"/>
+    <sheet name="Barring" sheetId="15" r:id="rId14"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId15"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId16"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId17"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="149">
   <si>
     <t>TestCase</t>
   </si>
@@ -139,9 +144,6 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>02181980</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -154,9 +156,6 @@
     <t>VQFT123</t>
   </si>
   <si>
-    <t>02142020</t>
-  </si>
-  <si>
     <t>Indian</t>
   </si>
   <si>
@@ -289,12 +288,6 @@
     <t>noname@vodafone.com</t>
   </si>
   <si>
-    <t>02021990</t>
-  </si>
-  <si>
-    <t>04042020</t>
-  </si>
-  <si>
     <t>VQFT23</t>
   </si>
   <si>
@@ -376,9 +369,6 @@
     <t>New_PlanName</t>
   </si>
   <si>
-    <t>Existing_PlanName</t>
-  </si>
-  <si>
     <t>Existing_SIM</t>
   </si>
   <si>
@@ -467,6 +457,27 @@
   </si>
   <si>
     <t>ExtCustomer</t>
+  </si>
+  <si>
+    <t>12181980</t>
+  </si>
+  <si>
+    <t>12142020</t>
+  </si>
+  <si>
+    <t>Barring Options</t>
+  </si>
+  <si>
+    <t>ReservationToken</t>
+  </si>
+  <si>
+    <t>NEW_MSISDN</t>
+  </si>
+  <si>
+    <t>Pre_To_Post</t>
+  </si>
+  <si>
+    <t>Post_To_Pre</t>
   </si>
 </sst>
 </file>
@@ -578,27 +589,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1121,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,10 +1166,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1238,7 +1229,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
@@ -1261,7 +1252,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1287,62 +1278,62 @@
         <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="T2"/>
       <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -1370,13 +1361,13 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1405,73 +1396,71 @@
         <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="T4"/>
       <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="X4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AA4" s="6"/>
+      <c r="AB4" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" t="s">
         <v>50</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1492,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1503,7 +1492,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -1514,7 +1503,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -1525,7 +1514,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -1536,7 +1525,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
@@ -1565,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1576,7 +1565,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -1587,7 +1576,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -1598,7 +1587,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -1609,7 +1598,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
@@ -1638,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -1652,7 +1641,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -1663,7 +1652,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -1674,7 +1663,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -1685,7 +1674,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>32</v>
@@ -1704,7 +1693,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1725,7 +1714,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -1736,7 +1725,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -1747,7 +1736,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -1758,13 +1747,438 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +2191,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1893,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>24</v>
@@ -1902,10 +2316,10 @@
         <v>25</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>26</v>
@@ -1916,13 +2330,13 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -1942,38 +2356,38 @@
         <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="T2"/>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="W2"/>
       <c r="X2"/>
@@ -1981,30 +2395,30 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD2" t="s">
         <v>10</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -2022,75 +2436,75 @@
         <v>36</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" t="s">
         <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="X3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="AA3" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD3" t="s">
         <v>10</v>
       </c>
       <c r="AE3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -2110,76 +2524,76 @@
         <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="T4"/>
       <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="X4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="AA4" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD4" t="s">
         <v>10</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>32</v>
@@ -2202,19 +2616,19 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD5" t="s">
         <v>10</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2226,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,28 +2700,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>19</v>
@@ -2325,43 +2739,43 @@
         <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>22</v>
@@ -2370,7 +2784,7 @@
         <v>23</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>24</v>
@@ -2384,13 +2798,13 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -2401,28 +2815,28 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>35</v>
@@ -2431,60 +2845,58 @@
         <v>36</v>
       </c>
       <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AC2" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>91</v>
-      </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="6"/>
+      <c r="AI2" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
         <v>50</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -2506,18 +2918,18 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AK3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AJ4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -2525,12 +2937,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U3">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2540,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,28 +3013,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>19</v>
@@ -2640,43 +3052,43 @@
         <v>23</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>22</v>
@@ -2685,7 +3097,7 @@
         <v>23</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>24</v>
@@ -2694,10 +3106,10 @@
         <v>25</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>26</v>
@@ -2705,13 +3117,13 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -2721,31 +3133,31 @@
       </c>
       <c r="F2" s="6"/>
       <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>35</v>
@@ -2754,64 +3166,64 @@
         <v>36</v>
       </c>
       <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AC2" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>91</v>
-      </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="AM2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -2832,19 +3244,19 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AK3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AM3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -2852,12 +3264,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2867,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,25 +3341,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
@@ -2965,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>5</v>
@@ -2983,16 +3395,16 @@
         <v>8</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>14</v>
@@ -3001,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>22</v>
@@ -3010,7 +3422,7 @@
         <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>24</v>
@@ -3019,10 +3431,10 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>26</v>
@@ -3030,13 +3442,13 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -3045,28 +3457,28 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>35</v>
@@ -3075,114 +3487,114 @@
         <v>36</v>
       </c>
       <c r="V2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AB2" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>91</v>
-      </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="10"/>
       <c r="L3" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG3" s="6"/>
       <c r="AI3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="s">
         <v>10</v>
       </c>
       <c r="AK3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
       <c r="L4" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AI4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AJ4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E5" s="10"/>
       <c r="L5" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E6" s="10"/>
       <c r="L6" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E7" s="10"/>
       <c r="L7" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3192,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3260,25 +3672,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
@@ -3296,43 +3708,43 @@
         <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>22</v>
@@ -3341,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>24</v>
@@ -3350,69 +3762,69 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AM1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="Q2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>35</v>
@@ -3421,151 +3833,151 @@
         <v>36</v>
       </c>
       <c r="V2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AB2" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>91</v>
-      </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="6"/>
       <c r="AH2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AJ2" t="s">
         <v>10</v>
       </c>
       <c r="AK2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AM2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AN2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AO2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AP2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L3" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AJ3" t="s">
         <v>10</v>
       </c>
       <c r="AK3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AM3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L4" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AI4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L5" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AG5" s="6"/>
       <c r="AI5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L6" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AM6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L7" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AM7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3576,7 +3988,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3603,7 +4015,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -3614,7 +4026,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
@@ -3625,7 +4037,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -3636,7 +4048,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
@@ -3652,75 +4064,72 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>112</v>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3748,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3762,7 +4171,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -3770,7 +4179,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
@@ -3778,7 +4187,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -3786,7 +4195,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="151">
   <si>
     <t>TestCase</t>
   </si>
@@ -474,10 +474,16 @@
     <t>NEW_MSISDN</t>
   </si>
   <si>
-    <t>Pre_To_Post</t>
-  </si>
-  <si>
-    <t>Post_To_Pre</t>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>Postpaid_To_Prepaid</t>
+  </si>
+  <si>
+    <t>Account_Name</t>
+  </si>
+  <si>
+    <t>Test_Mav</t>
   </si>
 </sst>
 </file>
@@ -2015,6 +2021,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2101,10 +2110,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2638,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,38 +2664,39 @@
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2706,97 +2719,100 @@
         <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -2814,81 +2830,81 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>82</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="6"/>
-      <c r="AI2" t="s">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -2906,41 +2922,41 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="T3" s="3"/>
+      <c r="I3" s="8"/>
       <c r="U3" s="3"/>
-      <c r="X3" s="6"/>
+      <c r="V3" s="3"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="3"/>
-      <c r="AB3" s="6"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="3"/>
+      <c r="AC3" s="6"/>
+      <c r="AF3" s="3"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" t="s">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ4" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AH5" s="6"/>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI5" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:I1">
+  <conditionalFormatting sqref="I1:J1">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
     <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U3">
+  <conditionalFormatting sqref="V2:V3">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
     <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
@@ -2950,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,39 +2980,40 @@
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3019,103 +3036,106 @@
         <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -3133,89 +3153,86 @@
       </c>
       <c r="F2" s="6"/>
       <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -3232,42 +3249,42 @@
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="M3" s="9"/>
-      <c r="T3" s="3"/>
+      <c r="N3" s="9"/>
       <c r="U3" s="3"/>
-      <c r="X3" s="6"/>
+      <c r="V3" s="3"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="3"/>
-      <c r="AB3" s="6"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="3"/>
+      <c r="AC3" s="6"/>
+      <c r="AF3" s="3"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AH5" s="6"/>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AI5" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:I1">
+  <conditionalFormatting sqref="I1:J1">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
     <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U3">
+  <conditionalFormatting sqref="V2:V3">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
     <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
@@ -4066,7 +4083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="Change_MSISDN" sheetId="17" r:id="rId16"/>
     <sheet name="Consumer_Migration" sheetId="18" r:id="rId17"/>
     <sheet name="Enterprise_Migration" sheetId="19" r:id="rId18"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId19"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="155">
   <si>
     <t>TestCase</t>
   </si>
@@ -484,6 +486,18 @@
   </si>
   <si>
     <t>Test_Mav</t>
+  </si>
+  <si>
+    <t>Pay_Type</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>CRM_Level</t>
   </si>
 </sst>
 </file>
@@ -1929,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,6 +2205,52 @@
       <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2648,12 +2708,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,10 @@
     <sheet name="SIPT" sheetId="14" r:id="rId6"/>
     <sheet name="Modify" sheetId="6" r:id="rId7"/>
     <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId8"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId9"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId10"/>
-    <sheet name="Resume" sheetId="8" r:id="rId11"/>
-    <sheet name="Disconnect" sheetId="10" r:id="rId12"/>
+    <sheet name="Disconnection" sheetId="22" r:id="rId9"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId10"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId11"/>
+    <sheet name="Resume" sheetId="8" r:id="rId12"/>
     <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId13"/>
     <sheet name="Barring" sheetId="15" r:id="rId14"/>
     <sheet name="UnBarring" sheetId="16" r:id="rId15"/>
@@ -1488,6 +1488,74 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1559,7 +1627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1624,82 +1692,6 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1943,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4189,7 +4181,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,15 +4256,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4282,45 +4270,57 @@
         <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,25 @@
     <sheet name="Modify" sheetId="6" r:id="rId7"/>
     <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId8"/>
     <sheet name="Disconnection" sheetId="22" r:id="rId9"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId10"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId11"/>
-    <sheet name="Resume" sheetId="8" r:id="rId12"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId13"/>
-    <sheet name="Barring" sheetId="15" r:id="rId14"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId15"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId16"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId17"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId18"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId19"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId20"/>
+    <sheet name="TroubleTicket" sheetId="23" r:id="rId10"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId11"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId12"/>
+    <sheet name="Resume" sheetId="8" r:id="rId13"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId14"/>
+    <sheet name="Barring" sheetId="15" r:id="rId15"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId16"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId17"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId18"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId19"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId20"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="345">
   <si>
     <t>TestCase</t>
   </si>
@@ -498,13 +499,583 @@
   </si>
   <si>
     <t>CRM_Level</t>
+  </si>
+  <si>
+    <t>Order_Reason</t>
+  </si>
+  <si>
+    <t>Bought A Wrong Number</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Outage Mgmt System</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>General Enquiry</t>
+  </si>
+  <si>
+    <t>REQ</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Service Available</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Complaints</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>Order Failure</t>
+  </si>
+  <si>
+    <t>Fixed_QA</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Auto Debit Failure</t>
+  </si>
+  <si>
+    <t>Credit card Failure</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Individual Health</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Medical Information Request</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>PUL</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Potential Complaint</t>
+  </si>
+  <si>
+    <t>Asset Finance</t>
+  </si>
+  <si>
+    <t>Loyalty</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>New Policy</t>
+  </si>
+  <si>
+    <t>Policy Information</t>
+  </si>
+  <si>
+    <t>Policy Change</t>
+  </si>
+  <si>
+    <t>Order ID Card</t>
+  </si>
+  <si>
+    <t>Change PCP</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Network Name</t>
+  </si>
+  <si>
+    <t>Billing Request</t>
+  </si>
+  <si>
+    <t>Refunds</t>
+  </si>
+  <si>
+    <t>Failed Request</t>
+  </si>
+  <si>
+    <t>USSD</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>General Complaint</t>
+  </si>
+  <si>
+    <t>Voice Calls</t>
+  </si>
+  <si>
+    <t>Network Coverage</t>
+  </si>
+  <si>
+    <t>Roaming</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>VAS</t>
+  </si>
+  <si>
+    <t>VMA</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>Campaigns</t>
+  </si>
+  <si>
+    <t>Oracle AIA</t>
+  </si>
+  <si>
+    <t>Oracle Siebel</t>
+  </si>
+  <si>
+    <t>BRM_01</t>
+  </si>
+  <si>
+    <t>Oracle BRM</t>
+  </si>
+  <si>
+    <t>Oracle OSM - OLM</t>
+  </si>
+  <si>
+    <t>OSM Provision</t>
+  </si>
+  <si>
+    <t>Oracle OSM - Provisioning</t>
+  </si>
+  <si>
+    <t>Oracle UIM</t>
+  </si>
+  <si>
+    <t>Provisioning</t>
+  </si>
+  <si>
+    <t>Equipments</t>
+  </si>
+  <si>
+    <t>BSS Performance</t>
+  </si>
+  <si>
+    <t>BSS Requests</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>Fixed Provisioining</t>
+  </si>
+  <si>
+    <t>Network Incidents</t>
+  </si>
+  <si>
+    <t>Billing &amp; Rating</t>
+  </si>
+  <si>
+    <t>Claim Information</t>
+  </si>
+  <si>
+    <t>New Claim</t>
+  </si>
+  <si>
+    <t>Claim Request</t>
+  </si>
+  <si>
+    <t>Contact Change</t>
+  </si>
+  <si>
+    <t>Quote</t>
+  </si>
+  <si>
+    <t>Contact Information</t>
+  </si>
+  <si>
+    <t>Authorization Request</t>
+  </si>
+  <si>
+    <t>Member Inquiry</t>
+  </si>
+  <si>
+    <t>Referral Request</t>
+  </si>
+  <si>
+    <t>Payment Inquiry</t>
+  </si>
+  <si>
+    <t>Payment Dispute</t>
+  </si>
+  <si>
+    <t>Fulfillment</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>Policy Termination</t>
+  </si>
+  <si>
+    <t>Complaint</t>
+  </si>
+  <si>
+    <t>Household Change</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Appeals</t>
+  </si>
+  <si>
+    <t>General Info</t>
+  </si>
+  <si>
+    <t>Claims</t>
+  </si>
+  <si>
+    <t>Auto Payment</t>
+  </si>
+  <si>
+    <t>Stop Payment</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Add Payment</t>
+  </si>
+  <si>
+    <t>Statement Copy</t>
+  </si>
+  <si>
+    <t>Bill Pay Sign Up</t>
+  </si>
+  <si>
+    <t>Check Copy</t>
+  </si>
+  <si>
+    <t>Check Order</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Phone</t>
+  </si>
+  <si>
+    <t>Fee Reversal</t>
+  </si>
+  <si>
+    <t>Funds Transfer</t>
+  </si>
+  <si>
+    <t>Modify Payment</t>
+  </si>
+  <si>
+    <t>Auto Saver</t>
+  </si>
+  <si>
+    <t>Investment Change</t>
+  </si>
+  <si>
+    <t>Loan/Withdrawal</t>
+  </si>
+  <si>
+    <t>Plan Change</t>
+  </si>
+  <si>
+    <t>Contribution Change</t>
+  </si>
+  <si>
+    <t>Claims Status</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Disposable</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Skip Trace</t>
+  </si>
+  <si>
+    <t>Impound</t>
+  </si>
+  <si>
+    <t>Rep Vehicle</t>
+  </si>
+  <si>
+    <t>New Assumption</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Re-lease</t>
+  </si>
+  <si>
+    <t>Payoff</t>
+  </si>
+  <si>
+    <t>Refinance</t>
+  </si>
+  <si>
+    <t>Title Move</t>
+  </si>
+  <si>
+    <t>Accruals</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Program Explanation</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Redeem Points</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Service Issue</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Transaction Dispute</t>
+  </si>
+  <si>
+    <t>Lost/Stolen Information</t>
+  </si>
+  <si>
+    <t>Company Address</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Extra Payment</t>
+  </si>
+  <si>
+    <t>Item Inquiry</t>
+  </si>
+  <si>
+    <t>Lock Box Inquiry</t>
+  </si>
+  <si>
+    <t>Lump Sum</t>
+  </si>
+  <si>
+    <t>Pay Off</t>
+  </si>
+  <si>
+    <t>Quick Pay</t>
+  </si>
+  <si>
+    <t>Statement Error</t>
+  </si>
+  <si>
+    <t>Transaction Data Error</t>
+  </si>
+  <si>
+    <t>Transaction Amount Error</t>
+  </si>
+  <si>
+    <t>Transaction Posting Error</t>
+  </si>
+  <si>
+    <t>Transfer Securities In</t>
+  </si>
+  <si>
+    <t>Transfer Securities Out</t>
+  </si>
+  <si>
+    <t>Web Site Error</t>
+  </si>
+  <si>
+    <t>Wire Transfer</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction</t>
+  </si>
+  <si>
+    <t>Solution Search</t>
+  </si>
+  <si>
+    <t>All Service Request</t>
+  </si>
+  <si>
+    <t>Bank Check</t>
+  </si>
+  <si>
+    <t>Transaction Date Error</t>
+  </si>
+  <si>
+    <t>Payment Promises</t>
+  </si>
+  <si>
+    <t>POS Support</t>
+  </si>
+  <si>
+    <t>Line Increase</t>
+  </si>
+  <si>
+    <t>Interest/ Fee Reversal</t>
+  </si>
+  <si>
+    <t>Close Account</t>
+  </si>
+  <si>
+    <t>Bill Pay Add Sched</t>
+  </si>
+  <si>
+    <t>Analysis Inquiry</t>
+  </si>
+  <si>
+    <t>Card Services</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Increase Credit Limit</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TT_Area</t>
+  </si>
+  <si>
+    <t>TT_Sub_Area</t>
+  </si>
+  <si>
+    <t>TT_Description</t>
+  </si>
+  <si>
+    <t>TT_Status</t>
+  </si>
+  <si>
+    <t>TT_Source</t>
+  </si>
+  <si>
+    <t>TT_TicketType</t>
+  </si>
+  <si>
+    <t>Bill Manager</t>
+  </si>
+  <si>
+    <t>Bill Request - Postpay</t>
+  </si>
+  <si>
+    <t>Bill Request - Prepay</t>
+  </si>
+  <si>
+    <t>Partial Payment</t>
+  </si>
+  <si>
+    <t>Decrease Credit Limit</t>
+  </si>
+  <si>
+    <t>TT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,8 +1112,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +1143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -605,6 +1202,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1488,6 +2090,1244 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1554,7 +3394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1627,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1700,7 +3540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1773,7 +3613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1855,7 +3695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1931,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2018,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -2111,7 +3951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -2197,52 +4037,6 @@
       <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2705,10 +4499,59 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3719,7 +5562,7 @@
   <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,11 +6099,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4270,57 +6119,69 @@
         <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -17,24 +17,25 @@
     <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId8"/>
     <sheet name="Disconnection" sheetId="22" r:id="rId9"/>
     <sheet name="TroubleTicket" sheetId="23" r:id="rId10"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId11"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId12"/>
-    <sheet name="Resume" sheetId="8" r:id="rId13"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId14"/>
-    <sheet name="Barring" sheetId="15" r:id="rId15"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId16"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId17"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId18"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId19"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId20"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId21"/>
+    <sheet name="Discounts" sheetId="24" r:id="rId11"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId12"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId13"/>
+    <sheet name="Resume" sheetId="8" r:id="rId14"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId15"/>
+    <sheet name="Barring" sheetId="15" r:id="rId16"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId17"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId18"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId19"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId20"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId21"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="350">
   <si>
     <t>TestCase</t>
   </si>
@@ -1069,6 +1070,21 @@
   </si>
   <si>
     <t>TT</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>AddonTab</t>
+  </si>
+  <si>
+    <t>Addon</t>
+  </si>
+  <si>
+    <t>PlanDiscount</t>
+  </si>
+  <si>
+    <t>AddonDiscount</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1176,11 +1192,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1207,6 +1234,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2092,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,6 +3355,69 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3394,7 +3485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3467,7 +3558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3540,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3613,7 +3704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3695,7 +3786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3771,7 +3862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3858,105 +3949,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,6 +4494,99 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4540,7 +4631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -14,28 +14,39 @@
     <sheet name="FixedLine_Provisioning" sheetId="5" r:id="rId5"/>
     <sheet name="SIPT" sheetId="14" r:id="rId6"/>
     <sheet name="Modify" sheetId="6" r:id="rId7"/>
-    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId8"/>
-    <sheet name="Disconnection" sheetId="22" r:id="rId9"/>
-    <sheet name="TroubleTicket" sheetId="23" r:id="rId10"/>
-    <sheet name="Discounts" sheetId="24" r:id="rId11"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId12"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId13"/>
-    <sheet name="Resume" sheetId="8" r:id="rId14"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId15"/>
-    <sheet name="Barring" sheetId="15" r:id="rId16"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId17"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId18"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId19"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId20"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId21"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId22"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId8"/>
+    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId9"/>
+    <sheet name="Disconnection" sheetId="22" r:id="rId10"/>
+    <sheet name="TroubleTicket" sheetId="23" r:id="rId11"/>
+    <sheet name="Discounts" sheetId="24" r:id="rId12"/>
+    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId13"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="26" r:id="rId14"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId15"/>
+    <sheet name="TransferOfService" sheetId="29" r:id="rId16"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId17"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId18"/>
+    <sheet name="Resume" sheetId="8" r:id="rId19"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId20"/>
+    <sheet name="Barring" sheetId="15" r:id="rId21"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId22"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId23"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId24"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId25"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId26"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId28"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="363">
   <si>
     <t>TestCase</t>
   </si>
@@ -241,42 +252,6 @@
     <t>Add_Kahramaa_ID</t>
   </si>
   <si>
-    <t>Cont_FirstName</t>
-  </si>
-  <si>
-    <t>Cont_LastName</t>
-  </si>
-  <si>
-    <t>Cont_Mr/Ms</t>
-  </si>
-  <si>
-    <t>Cont_Email</t>
-  </si>
-  <si>
-    <t>Cont_DOB</t>
-  </si>
-  <si>
-    <t>Cont_IDExpiryDate</t>
-  </si>
-  <si>
-    <t>Cont_IDNumber</t>
-  </si>
-  <si>
-    <t>Cont_IDType</t>
-  </si>
-  <si>
-    <t>Cont_MobilePhone</t>
-  </si>
-  <si>
-    <t>Cont_Nationality</t>
-  </si>
-  <si>
-    <t>Cont_Gender</t>
-  </si>
-  <si>
-    <t>Cont_PrefLang</t>
-  </si>
-  <si>
     <t>Prepaid Business Plans</t>
   </si>
   <si>
@@ -1085,13 +1060,88 @@
   </si>
   <si>
     <t>AddonDiscount</t>
+  </si>
+  <si>
+    <t>SingleAccount</t>
+  </si>
+  <si>
+    <t>MultipleAccount</t>
+  </si>
+  <si>
+    <t>account_no-list.txt</t>
+  </si>
+  <si>
+    <t>/brmapp/opt/portal/7.5.0/sys/test/control_file_gen/</t>
+  </si>
+  <si>
+    <t>str_Directory</t>
+  </si>
+  <si>
+    <t>str_File</t>
+  </si>
+  <si>
+    <t>PVT_Date</t>
+  </si>
+  <si>
+    <t>AccountNo</t>
+  </si>
+  <si>
+    <t>010110002018</t>
+  </si>
+  <si>
+    <t>MultipleAccountNo</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>SP_Product</t>
+  </si>
+  <si>
+    <t>ID_Expiry</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>File_Upload</t>
+  </si>
+  <si>
+    <t>CAF_NewFile</t>
+  </si>
+  <si>
+    <t>02022020</t>
+  </si>
+  <si>
+    <t>02011991</t>
+  </si>
+  <si>
+    <t>97412345678</t>
+  </si>
+  <si>
+    <t>C:\Users\RaviprasadV\Desktop\Workspace\Vodafone_QAR-803\Framework\Storage\ContactAttachment.jpg</t>
+  </si>
+  <si>
+    <t>Ext_AccountNo</t>
+  </si>
+  <si>
+    <t>NewAccount</t>
+  </si>
+  <si>
+    <t>ExistingAccount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,8 +1198,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,8 +1241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1203,11 +1282,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1235,6 +1342,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,6 +1592,162 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release_History"/>
+      <sheetName val="LoginDetails"/>
+      <sheetName val="ExecutionInput"/>
+      <sheetName val="Validations"/>
+      <sheetName val="Discounts"/>
+      <sheetName val="LOV"/>
+      <sheetName val="TestData"/>
+      <sheetName val="FieldValues"/>
+      <sheetName val="UsecaseName"/>
+      <sheetName val="PlanName"/>
+      <sheetName val="Addons"/>
+      <sheetName val="ValidationName"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>ConsumerPrepaid_Provisioning</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ConsumerPostpaid_Provisioning</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Modify</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Plan_UpgradeDowngrade</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SIMSwap</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SIPT</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>EnterprisePrepaid_Provisioning</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EnterprisePostpaid_Provisioning</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Consumer_Migration</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Enterprise_Migration</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Change_MSISDN</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>BillPayment</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Change_SmartLimit</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Disconnection</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>TroubleTicket</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Discounts</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>BillGeneration_AccountLevel</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>SIMSwap_Guided_Journey</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>ConsumerPostpaid_GuidedJourney</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>TransferOfService</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>ConsumerFixedLine_Provisioning</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>EnterpriseFixedLine_Provisioning</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>SIMSwap_Global_Search</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Suspend</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1762,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,10 +2093,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1879,7 +2156,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
@@ -1902,7 +2179,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -1928,7 +2205,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>37</v>
@@ -1943,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>41</v>
@@ -1983,7 +2260,7 @@
     </row>
     <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -2046,7 +2323,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>37</v>
@@ -2061,7 +2338,7 @@
         <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>41</v>
@@ -2117,6 +2394,100 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I205"/>
   <sheetViews>
@@ -2139,54 +2510,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,1146 +2577,1146 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F38" s="14" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F39" s="13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F40" s="13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F41" s="13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F42" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F43" s="13" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F44" s="13" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F45" s="13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F46" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F47" s="13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F48" s="13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="13" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="14" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="14" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="14" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="14" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="14" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="14" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="13" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="13" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="13" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="13" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="14" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="14" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="14" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="13" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="13" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="14" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="14" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="14" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="14" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="14" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="14" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="13" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="13" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="13" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="13" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="14" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="14" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="14" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="13" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="13" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="13" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="13" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="14" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="14" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="14" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="14" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="14" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="14" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="14" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="14" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="14" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="14" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="14" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="14" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="14" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="14" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="14" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="14" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" s="14" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" s="13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" s="13" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" s="13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" s="14" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131" s="14" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132" s="14" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133" s="14" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="14" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135" s="13" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136" s="13" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137" s="13" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138" s="13" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139" s="14" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140" s="14" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141" s="14" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142" s="14" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143" s="14" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F144" s="14" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F145" s="14" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F146" s="14" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F147" s="14" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148" s="13" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F149" s="13" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F150" s="13" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F151" s="13" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F152" s="13" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F153" s="13" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="154" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F154" s="13" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F155" s="13" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F156" s="14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F157" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F158" s="14" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F159" s="14" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F160" s="14" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F161" s="14" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="162" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F162" s="14" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F163" s="14" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F164" s="14" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F165" s="14" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166" s="14" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F167" s="14" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F168" s="14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F169" s="14" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F170" s="14" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F171" s="14" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F172" s="14" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F173" s="14" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F174" s="14" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F175" s="14" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F176" s="14" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F177" s="14" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F178" s="14" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F179" s="14" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F180" s="14" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F181" s="14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F182" s="14" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F183" s="14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F184" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F185" s="14" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F186" s="14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F187" s="14" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F188" s="14" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F189" s="14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="190" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F190" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="191" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F191" s="14" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="192" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F192" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F193" s="14" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F194" s="14" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F195" s="14" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="196" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F196" s="14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="197" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F197" s="14" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="198" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F198" s="14" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F199" s="14" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F200" s="14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F201" s="14" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F202" s="14" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F203" s="14" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F204" s="14" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="205" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F205" s="14" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3354,12 +3725,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,27 +3749,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -3406,77 +3777,9 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3486,6 +3789,412 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="99.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,"_Test")</f>
+        <v>ConsumerPrepaid_Test</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
+        <v>ConsumerPostpaid_Test</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePostpaid_Test</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePrepaid_Test</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,"_Test")</f>
+        <v>ConsumerPrepaid_Test</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
+        <v>ConsumerPostpaid_Test</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePostpaid_Test</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePrepaid_Test</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3500,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3511,7 +4220,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -3522,7 +4231,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -3533,7 +4242,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -3544,7 +4253,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
@@ -3558,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3573,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3584,7 +4293,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -3595,7 +4304,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -3606,7 +4315,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -3617,424 +4326,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4100,10 +4398,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -4163,7 +4461,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>24</v>
@@ -4186,7 +4484,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -4212,7 +4510,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>37</v>
@@ -4227,7 +4525,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>41</v>
@@ -4243,7 +4541,7 @@
         <v>45</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="W2"/>
       <c r="X2"/>
@@ -4292,7 +4590,7 @@
         <v>36</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>37</v>
@@ -4307,7 +4605,7 @@
         <v>40</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>41</v>
@@ -4335,7 +4633,7 @@
         <v>48</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>55</v>
@@ -4380,7 +4678,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>37</v>
@@ -4395,7 +4693,7 @@
         <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>41</v>
@@ -4423,7 +4721,7 @@
         <v>48</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>55</v>
@@ -4443,7 +4741,7 @@
     </row>
     <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -4494,6 +4792,417 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4510,16 +5219,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>24</v>
@@ -4539,7 +5248,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -4562,7 +5271,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -4585,7 +5294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4600,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4617,7 +5326,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -4631,7 +5340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4649,24 +5358,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -4683,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,13 +5453,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -4789,40 +5498,40 @@
         <v>67</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>22</v>
@@ -4831,7 +5540,7 @@
         <v>23</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>24</v>
@@ -4845,13 +5554,13 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -4862,7 +5571,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>44</v>
@@ -4871,19 +5580,19 @@
         <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>35</v>
@@ -4892,25 +5601,25 @@
         <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s">
         <v>39</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s">
         <v>37</v>
@@ -4937,13 +5646,13 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -4976,7 +5685,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AK4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -4999,8 +5708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5061,13 +5770,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -5106,40 +5815,40 @@
         <v>67</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>22</v>
@@ -5148,7 +5857,7 @@
         <v>23</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>24</v>
@@ -5168,13 +5877,13 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -5184,7 +5893,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -5193,19 +5902,19 @@
         <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>35</v>
@@ -5214,25 +5923,25 @@
         <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s">
         <v>39</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s">
         <v>37</v>
@@ -5265,13 +5974,13 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -5389,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -5443,16 +6152,16 @@
         <v>8</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>14</v>
@@ -5461,7 +6170,7 @@
         <v>9</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>22</v>
@@ -5470,7 +6179,7 @@
         <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>24</v>
@@ -5490,13 +6199,13 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -5511,13 +6220,13 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>47</v>
@@ -5526,7 +6235,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>35</v>
@@ -5535,25 +6244,25 @@
         <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s">
         <v>39</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s">
         <v>37</v>
@@ -5588,7 +6297,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="10"/>
       <c r="L3" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="6"/>
       <c r="AI3" t="s">
@@ -5607,32 +6316,32 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
       <c r="L4" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>88</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E5" s="10"/>
       <c r="L5" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E6" s="10"/>
       <c r="L6" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E7" s="10"/>
       <c r="L7" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5652,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5720,7 +6429,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -5759,40 +6468,40 @@
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>22</v>
@@ -5801,7 +6510,7 @@
         <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>24</v>
@@ -5819,36 +6528,36 @@
         <v>26</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -5857,13 +6566,13 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>47</v>
@@ -5872,7 +6581,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>35</v>
@@ -5881,25 +6590,25 @@
         <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s">
         <v>39</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s">
         <v>37</v>
@@ -5930,29 +6639,29 @@
         <v>62</v>
       </c>
       <c r="AM2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AN2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AO2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L3" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AH3" t="s">
         <v>55</v>
@@ -5970,52 +6679,52 @@
         <v>62</v>
       </c>
       <c r="AM3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L4" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AI4" t="s">
         <v>60</v>
       </c>
       <c r="AJ4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L5" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AG5" s="6"/>
       <c r="AI5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L6" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L7" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6046,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6063,7 +6772,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -6074,7 +6783,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
@@ -6085,7 +6794,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -6096,7 +6805,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
@@ -6115,70 +6824,62 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6191,88 +6892,70 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="369">
   <si>
     <t>TestCase</t>
   </si>
@@ -1116,18 +1116,6 @@
     <t>CAF_NewFile</t>
   </si>
   <si>
-    <t>02022020</t>
-  </si>
-  <si>
-    <t>02011991</t>
-  </si>
-  <si>
-    <t>97412345678</t>
-  </si>
-  <si>
-    <t>C:\Users\RaviprasadV\Desktop\Workspace\Vodafone_QAR-803\Framework\Storage\ContactAttachment.jpg</t>
-  </si>
-  <si>
     <t>Ext_AccountNo</t>
   </si>
   <si>
@@ -1135,6 +1123,36 @@
   </si>
   <si>
     <t>ExistingAccount</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>MediaType</t>
+  </si>
+  <si>
+    <t>BillType</t>
+  </si>
+  <si>
+    <t>BillLang</t>
+  </si>
+  <si>
+    <t>passport.png</t>
+  </si>
+  <si>
+    <t>CAF.png</t>
+  </si>
+  <si>
+    <t>Expatriate</t>
+  </si>
+  <si>
+    <t>2011991</t>
+  </si>
+  <si>
+    <t>2022020</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1342,8 +1360,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1356,11 +1372,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1612,11 +1671,11 @@
       <sheetName val="ValidationName"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
@@ -1739,12 +1798,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2039,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,16 +2437,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3861,132 +3920,216 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="99.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="T1" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="N2" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="P2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="20">
+        <v>97412345678</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>359</v>
+      <c r="D3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>97412345678</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4008,10 +4151,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4065,58 +4208,289 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="E1" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>33</v>
       </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4344,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,12 +6067,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6021,12 +6395,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6346,12 +6720,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6729,12 +7103,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,39 +4,40 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
-    <sheet name="ConsumerPostpaid_Provisioning" sheetId="2" r:id="rId2"/>
-    <sheet name="EnterprisePrepaid_Provisioning" sheetId="3" r:id="rId3"/>
-    <sheet name="EnterprisePostpaid_Provisioning" sheetId="4" r:id="rId4"/>
-    <sheet name="FixedLine_Provisioning" sheetId="5" r:id="rId5"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId6"/>
-    <sheet name="Modify" sheetId="6" r:id="rId7"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId8"/>
-    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId9"/>
-    <sheet name="Disconnection" sheetId="22" r:id="rId10"/>
-    <sheet name="TroubleTicket" sheetId="23" r:id="rId11"/>
-    <sheet name="Discounts" sheetId="24" r:id="rId12"/>
-    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId13"/>
-    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="26" r:id="rId14"/>
-    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId15"/>
-    <sheet name="TransferOfService" sheetId="29" r:id="rId16"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId17"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId18"/>
-    <sheet name="Resume" sheetId="8" r:id="rId19"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId20"/>
-    <sheet name="Barring" sheetId="15" r:id="rId21"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId22"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId23"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId24"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId25"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId26"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId27"/>
+    <sheet name="EnterprisePrepaid_Provisioning" sheetId="3" r:id="rId2"/>
+    <sheet name="EnterprisePostpaid_Provisioning" sheetId="4" r:id="rId3"/>
+    <sheet name="ConsumerPostpaid_Provisioning" sheetId="2" r:id="rId4"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId5"/>
+    <sheet name="Modify" sheetId="6" r:id="rId6"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId7"/>
+    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId8"/>
+    <sheet name="Disconnection" sheetId="22" r:id="rId9"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId10"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId11"/>
+    <sheet name="TroubleTicket" sheetId="23" r:id="rId12"/>
+    <sheet name="Discounts" sheetId="24" r:id="rId13"/>
+    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId14"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId15"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId16"/>
+    <sheet name="TransferOfService" sheetId="29" r:id="rId17"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId18"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId19"/>
+    <sheet name="Resume" sheetId="8" r:id="rId20"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId21"/>
+    <sheet name="Barring" sheetId="15" r:id="rId22"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId23"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId24"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId25"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId26"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId27"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId28"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="378">
   <si>
     <t>TestCase</t>
   </si>
@@ -303,9 +304,6 @@
     <t>Fixed Line Plans</t>
   </si>
   <si>
-    <t>Fixed Line Broadband Plans</t>
-  </si>
-  <si>
     <t>1126189</t>
   </si>
   <si>
@@ -1153,13 +1151,43 @@
   </si>
   <si>
     <t>2022020</t>
+  </si>
+  <si>
+    <t>Sdata</t>
+  </si>
+  <si>
+    <t>OSM_CPE</t>
+  </si>
+  <si>
+    <t>OSM_OUI</t>
+  </si>
+  <si>
+    <t>OSM_CPEP</t>
+  </si>
+  <si>
+    <t>OSM_SerialN</t>
+  </si>
+  <si>
+    <t>OSM_CardID</t>
+  </si>
+  <si>
+    <t>OSM_PortID</t>
+  </si>
+  <si>
+    <t>Broadband Internet Service</t>
+  </si>
+  <si>
+    <t>VoIP Service</t>
+  </si>
+  <si>
+    <t>Corporate Internet Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,13 +1199,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1332,10 +1353,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1350,36 +1371,80 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2152,10 +2217,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -2215,7 +2280,7 @@
         <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
@@ -2238,7 +2303,7 @@
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -2264,7 +2329,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>37</v>
@@ -2279,7 +2344,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>41</v>
@@ -2319,7 +2384,7 @@
     </row>
     <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -2382,7 +2447,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>37</v>
@@ -2397,7 +2462,7 @@
         <v>40</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>41</v>
@@ -2437,16 +2502,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2454,99 +2519,588 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
+      <c r="F2" s="6"/>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
+      <c r="F3" s="6"/>
+      <c r="N3" s="9"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="3"/>
+      <c r="AC3" s="6"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V3">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AC3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I205"/>
   <sheetViews>
@@ -2569,1213 +3123,1213 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
         <v>319</v>
       </c>
-      <c r="H2" t="s">
-        <v>320</v>
-      </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="I8" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="I11" s="11"/>
+      <c r="G11" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="I12" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="I14" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I17" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="I18" s="11"/>
+        <v>160</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="I20" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>193</v>
+        <v>163</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>194</v>
+        <v>164</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>189</v>
+        <v>165</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>195</v>
+        <v>166</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>196</v>
+        <v>167</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>197</v>
+        <v>168</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>187</v>
+        <v>169</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>198</v>
+        <v>170</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>200</v>
+        <v>172</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>201</v>
+        <v>173</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>202</v>
+        <v>174</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>203</v>
+        <v>175</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>205</v>
+        <v>177</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F42" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F71" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="13" t="s">
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F73" s="14" t="s">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F74" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75" s="14" t="s">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F76" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F77" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F78" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F79" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="13" t="s">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="14" t="s">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="13" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F105" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F106" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F107" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F108" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F109" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F110" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F111" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F135" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F139" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F140" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F141" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F142" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F143" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F144" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F145" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F146" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F147" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F148" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F149" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F150" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F151" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F152" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F153" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F154" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F155" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F156" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F157" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F158" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F159" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F160" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F161" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F162" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F163" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F164" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F165" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F166" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F167" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F168" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F169" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F170" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F171" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F172" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F173" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F174" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F175" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F176" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F177" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F178" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F179" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F180" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F181" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F182" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F183" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F184" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F185" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F186" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F187" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F188" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F189" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F190" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F191" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F192" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F193" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F194" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F195" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F196" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F197" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F198" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F199" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F200" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F201" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F202" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F203" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F204" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F205" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +4338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3808,27 +4362,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -3836,7 +4390,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -3847,7 +4401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3870,47 +4424,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" t="s">
         <v>340</v>
       </c>
-      <c r="E2" t="s">
-        <v>341</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" t="s">
         <v>340</v>
       </c>
-      <c r="E3" t="s">
-        <v>341</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3918,12 +4472,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,190 +4509,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>97412345678</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="X1" s="19" t="s">
+      <c r="W2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>97412345678</v>
+      </c>
+      <c r="R3" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="20">
-        <v>97412345678</v>
-      </c>
-      <c r="R2" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T3" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="T2" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>97412345678</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,19 +4704,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>101</v>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="str">
@@ -4173,7 +4726,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="str">
@@ -4183,7 +4736,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="str">
@@ -4193,7 +4746,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="str">
@@ -4206,7 +4759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
@@ -4243,99 +4796,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="18" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
@@ -4357,7 +4910,7 @@
         <v>36</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>37</v>
@@ -4372,7 +4925,7 @@
         <v>40</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>41</v>
@@ -4387,19 +4940,19 @@
         <v>45</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
@@ -4413,11 +4966,11 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G4" t="s">
@@ -4439,7 +4992,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>37</v>
@@ -4454,7 +5007,7 @@
         <v>40</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>41</v>
@@ -4496,7 +5049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4514,18 +5067,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="str">
@@ -4535,7 +5088,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="str">
@@ -4545,7 +5098,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="str">
@@ -4555,7 +5108,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="str">
@@ -4568,7 +5121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4583,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -4594,7 +5147,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -4605,7 +5158,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
@@ -4616,7 +5169,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -4627,80 +5180,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
@@ -4715,1054 +5195,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4"/>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
@@ -5827,13 +5259,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -5914,7 +5346,7 @@
         <v>23</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>24</v>
@@ -5928,7 +5360,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>30</v>
@@ -5945,7 +5377,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>44</v>
@@ -5978,10 +5410,10 @@
         <v>72</v>
       </c>
       <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>73</v>
@@ -6020,7 +5452,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>30</v>
@@ -6067,23 +5499,694 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection sqref="A1:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6144,13 +6247,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -6231,7 +6334,7 @@
         <v>23</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>24</v>
@@ -6251,7 +6354,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -6267,7 +6370,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -6300,10 +6403,10 @@
         <v>72</v>
       </c>
       <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>73</v>
@@ -6348,7 +6451,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -6395,67 +6498,59 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:X2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6475,111 +6570,96 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>82</v>
+      <c r="AA1" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -6587,151 +6667,299 @@
       <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2"/>
+      <c r="U2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="V2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="AA3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4"/>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="K4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="3" t="s">
+      <c r="AA4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AD4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AF4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
-      <c r="E3" s="10"/>
-      <c r="L3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" s="6"/>
-      <c r="AI3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" t="s">
+    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
-      <c r="L4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E5" s="10"/>
-      <c r="L5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG5" s="6"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E6" s="10"/>
-      <c r="L6" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
-      <c r="L7" s="9" t="s">
-        <v>91</v>
+      <c r="AE5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS7"/>
   <sheetViews>
@@ -6803,7 +7031,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -6884,7 +7112,7 @@
         <v>23</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>24</v>
@@ -6902,36 +7130,36 @@
         <v>26</v>
       </c>
       <c r="AM1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -6940,10 +7168,10 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
         <v>116</v>
-      </c>
-      <c r="K2" t="s">
-        <v>117</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>77</v>
@@ -6955,7 +7183,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>35</v>
@@ -6967,10 +7195,10 @@
         <v>72</v>
       </c>
       <c r="W2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>73</v>
@@ -7013,29 +7241,29 @@
         <v>62</v>
       </c>
       <c r="AM2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO2" t="s">
         <v>119</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>120</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH3" t="s">
         <v>55</v>
@@ -7053,73 +7281,73 @@
         <v>62</v>
       </c>
       <c r="AM3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI4" t="s">
         <v>60</v>
       </c>
       <c r="AJ4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG5" s="6"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
       <c r="AM5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,13 +7357,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -7146,7 +7374,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -7157,7 +7385,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
@@ -7168,7 +7396,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -7179,7 +7407,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
@@ -7193,7 +7421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -7212,13 +7440,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -7226,7 +7454,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -7234,7 +7462,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
@@ -7242,7 +7470,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -7250,7 +7478,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
@@ -7261,7 +7489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -7276,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -7290,7 +7518,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
@@ -7301,7 +7529,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -7312,7 +7540,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -7323,13 +7551,107 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
